--- a/NPOIHelperTest/TestImportExcel/test1.xlsx
+++ b/NPOIHelperTest/TestImportExcel/test1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE19481-ACC4-455C-8C14-6F52F5337F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5327C1C-51A8-48CB-975D-18A57126787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,22 +88,6 @@
   </si>
   <si>
     <t>A123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^https://www.sxkid.com/svs/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^https://www.sxkid.com/org/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,43 +111,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -171,34 +128,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,17 +144,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="计算" xfId="2" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -864,57 +792,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>1791</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>54</v>
-      </c>
-      <c r="C3">
-        <v>29</v>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.sxkid.com/org/" xr:uid="{56C9BA3A-2CCE-47E9-A5E5-7F2C3D60038B}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.sxkid.com/svs/" xr:uid="{B4A3A532-2C41-472E-868B-34C987A0DAEA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NPOIHelperTest/TestImportExcel/test1.xlsx
+++ b/NPOIHelperTest/TestImportExcel/test1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5327C1C-51A8-48CB-975D-18A57126787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A80725A-4EE9-4991-BB33-E61F13ECF9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +146,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -494,7 +504,7 @@
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,7 +524,7 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -537,7 +547,7 @@
       <c r="E2">
         <v>1.69</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>32880.375752314816</v>
       </c>
       <c r="G2" s="1">
@@ -551,7 +561,12 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="F3" s="4">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -569,7 +584,7 @@
       <c r="E4">
         <v>1.69</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>32880</v>
       </c>
       <c r="G4" s="1">
@@ -592,7 +607,7 @@
       <c r="E5">
         <v>1.69</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>32881</v>
       </c>
       <c r="G5" s="1">
@@ -615,7 +630,7 @@
       <c r="E6">
         <v>1.69</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>32882</v>
       </c>
       <c r="G6" s="1">
@@ -638,7 +653,7 @@
       <c r="E7">
         <v>1.69</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>32883</v>
       </c>
       <c r="G7" s="1">
@@ -661,7 +676,7 @@
       <c r="E8">
         <v>1.69</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>32884</v>
       </c>
       <c r="G8" s="1">
@@ -684,7 +699,7 @@
       <c r="E9">
         <v>1.69</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>32885</v>
       </c>
       <c r="G9" s="1">
@@ -707,7 +722,7 @@
       <c r="E10">
         <v>1.69</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>32886</v>
       </c>
       <c r="G10" s="1">
@@ -730,7 +745,7 @@
       <c r="E11">
         <v>1.69</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>32887</v>
       </c>
       <c r="G11" s="1">
@@ -753,7 +768,7 @@
       <c r="E12">
         <v>1.69</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>32888</v>
       </c>
       <c r="G12" s="1">
@@ -776,7 +791,7 @@
       <c r="E13">
         <v>1.69</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>32889</v>
       </c>
       <c r="G13" s="1">
@@ -794,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
